--- a/Code/Results/Cases/Case_8_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003570453647444</v>
+        <v>1.002162722690614</v>
       </c>
       <c r="D2">
-        <v>1.026933706782297</v>
+        <v>1.025542720846</v>
       </c>
       <c r="E2">
-        <v>1.009491662307902</v>
+        <v>1.008289707490971</v>
       </c>
       <c r="F2">
-        <v>1.033656705509472</v>
+        <v>1.03262208248973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047025517508677</v>
+        <v>1.046450048542732</v>
       </c>
       <c r="J2">
-        <v>1.025644894991434</v>
+        <v>1.02427893895664</v>
       </c>
       <c r="K2">
-        <v>1.038030143700791</v>
+        <v>1.036657314592095</v>
       </c>
       <c r="L2">
-        <v>1.020820328214966</v>
+        <v>1.01963474907475</v>
       </c>
       <c r="M2">
-        <v>1.044666246981464</v>
+        <v>1.043644904455403</v>
       </c>
       <c r="N2">
-        <v>1.027101428385436</v>
+        <v>1.023210239765464</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043922720930246</v>
+        <v>1.043114400166345</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037960874927361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036998947122618</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021789181119954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007342963234553</v>
+        <v>1.005609972577834</v>
       </c>
       <c r="D3">
-        <v>1.029362022924739</v>
+        <v>1.02768907990447</v>
       </c>
       <c r="E3">
-        <v>1.012459763282936</v>
+        <v>1.010973650719514</v>
       </c>
       <c r="F3">
-        <v>1.03617859283655</v>
+        <v>1.034927336270033</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047646405517619</v>
+        <v>1.046947321407764</v>
       </c>
       <c r="J3">
-        <v>1.027635433751463</v>
+        <v>1.025948863665042</v>
       </c>
       <c r="K3">
-        <v>1.039632504915399</v>
+        <v>1.037979519924295</v>
       </c>
       <c r="L3">
-        <v>1.022935663207999</v>
+        <v>1.021468020978755</v>
       </c>
       <c r="M3">
-        <v>1.04636857843561</v>
+        <v>1.045131999516597</v>
       </c>
       <c r="N3">
-        <v>1.029094793938822</v>
+        <v>1.024146552835771</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045269994538785</v>
+        <v>1.044291331001445</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039091218438262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037930918513551</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022047275718868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009743412724444</v>
+        <v>1.007805396265984</v>
       </c>
       <c r="D4">
-        <v>1.030910860305404</v>
+        <v>1.029059544900935</v>
       </c>
       <c r="E4">
-        <v>1.014354296902636</v>
+        <v>1.012688804793977</v>
       </c>
       <c r="F4">
-        <v>1.037789178244403</v>
+        <v>1.036401066631063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048032425313791</v>
+        <v>1.047255043213281</v>
       </c>
       <c r="J4">
-        <v>1.02890112270227</v>
+        <v>1.027011524902943</v>
       </c>
       <c r="K4">
-        <v>1.040650000678557</v>
+        <v>1.038819454874402</v>
       </c>
       <c r="L4">
-        <v>1.024282510946543</v>
+        <v>1.022636461801504</v>
       </c>
       <c r="M4">
-        <v>1.047451949701987</v>
+        <v>1.046079149715967</v>
       </c>
       <c r="N4">
-        <v>1.030362280313116</v>
+        <v>1.024742374593115</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046127404132412</v>
+        <v>1.045040932579817</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039811572005822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038525804788626</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022208895628466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010746342965691</v>
+        <v>1.008722959850373</v>
       </c>
       <c r="D5">
-        <v>1.031560740840019</v>
+        <v>1.029635104436791</v>
       </c>
       <c r="E5">
-        <v>1.015147629071304</v>
+        <v>1.01340739110272</v>
       </c>
       <c r="F5">
-        <v>1.038464171693875</v>
+        <v>1.037019061832666</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048192904107872</v>
+        <v>1.047382864872805</v>
       </c>
       <c r="J5">
-        <v>1.029431141153331</v>
+        <v>1.027456806766666</v>
       </c>
       <c r="K5">
-        <v>1.041077175314338</v>
+        <v>1.039172573588996</v>
       </c>
       <c r="L5">
-        <v>1.024846504946054</v>
+        <v>1.023126037996957</v>
       </c>
       <c r="M5">
-        <v>1.047905982236405</v>
+        <v>1.046476392785767</v>
       </c>
       <c r="N5">
-        <v>1.030893051451171</v>
+        <v>1.024992038092264</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046486737576814</v>
+        <v>1.045355321803432</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040120789880865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038783376268154</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022276733524869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010918109614135</v>
+        <v>1.008879955519678</v>
       </c>
       <c r="D6">
-        <v>1.031674418935024</v>
+        <v>1.029736025139443</v>
       </c>
       <c r="E6">
-        <v>1.015284049722034</v>
+        <v>1.013530872944802</v>
       </c>
       <c r="F6">
-        <v>1.038580706607916</v>
+        <v>1.037125791452988</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048221969572341</v>
+        <v>1.047406309434309</v>
       </c>
       <c r="J6">
-        <v>1.029523653006281</v>
+        <v>1.027534652887768</v>
       </c>
       <c r="K6">
-        <v>1.041153448558843</v>
+        <v>1.039236132853208</v>
       </c>
       <c r="L6">
-        <v>1.02494443268932</v>
+        <v>1.023211082109046</v>
       </c>
       <c r="M6">
-        <v>1.047985420593032</v>
+        <v>1.046546060355521</v>
       </c>
       <c r="N6">
-        <v>1.030985694681564</v>
+        <v>1.025035685304849</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04654960719068</v>
+        <v>1.045410458643602</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040183464174984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038837937086544</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022289468682003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009767394642074</v>
+        <v>1.007848323063512</v>
       </c>
       <c r="D7">
-        <v>1.030932628175268</v>
+        <v>1.029094209283412</v>
       </c>
       <c r="E7">
-        <v>1.014374533154756</v>
+        <v>1.012726360258797</v>
       </c>
       <c r="F7">
-        <v>1.037807592809739</v>
+        <v>1.036430410827774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048040870975178</v>
+        <v>1.047269819683063</v>
       </c>
       <c r="J7">
-        <v>1.028918506509811</v>
+        <v>1.027047358479682</v>
       </c>
       <c r="K7">
-        <v>1.040668643779628</v>
+        <v>1.038850841535979</v>
       </c>
       <c r="L7">
-        <v>1.024299567168881</v>
+        <v>1.022670627250893</v>
       </c>
       <c r="M7">
-        <v>1.047467305798743</v>
+        <v>1.046105308969096</v>
       </c>
       <c r="N7">
-        <v>1.030379688807658</v>
+        <v>1.02481492700198</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04613955735938</v>
+        <v>1.045061635745093</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039844864072268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038570122775212</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022218242753281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004867221302565</v>
+        <v>1.003413896836493</v>
       </c>
       <c r="D8">
-        <v>1.027775341002654</v>
+        <v>1.026333679022795</v>
       </c>
       <c r="E8">
-        <v>1.010512335208205</v>
+        <v>1.009273144443212</v>
       </c>
       <c r="F8">
-        <v>1.034525163028096</v>
+        <v>1.033454903826586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047246492579017</v>
+        <v>1.046651079818662</v>
       </c>
       <c r="J8">
-        <v>1.02633517178039</v>
+        <v>1.024923530568191</v>
       </c>
       <c r="K8">
-        <v>1.038591775526045</v>
+        <v>1.037168378028914</v>
       </c>
       <c r="L8">
-        <v>1.021551768442117</v>
+        <v>1.020328953280234</v>
       </c>
       <c r="M8">
-        <v>1.045256927422239</v>
+        <v>1.044200001660939</v>
       </c>
       <c r="N8">
-        <v>1.027792685446608</v>
+        <v>1.023730702272037</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044390202539416</v>
+        <v>1.04355372066788</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03838091467347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037385512343655</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021896912451692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9958907651812484</v>
+        <v>0.9952371921909959</v>
       </c>
       <c r="D9">
-        <v>1.022013075142805</v>
+        <v>1.021258279802518</v>
       </c>
       <c r="E9">
-        <v>1.003483695990131</v>
+        <v>1.002941936575838</v>
       </c>
       <c r="F9">
-        <v>1.028557549063481</v>
+        <v>1.028017034613034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045714005280753</v>
+        <v>1.045419685892027</v>
       </c>
       <c r="J9">
-        <v>1.0215894703039</v>
+        <v>1.020959265841914</v>
       </c>
       <c r="K9">
-        <v>1.034758823428613</v>
+        <v>1.034015621048378</v>
       </c>
       <c r="L9">
-        <v>1.016520504388589</v>
+        <v>1.01598746256065</v>
       </c>
       <c r="M9">
-        <v>1.041203688856557</v>
+        <v>1.040671339962936</v>
       </c>
       <c r="N9">
-        <v>1.023040244529682</v>
+        <v>1.021527237230498</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041182346102205</v>
+        <v>1.040761027921318</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035667579482507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035152840937595</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021267962676221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9897225476616119</v>
+        <v>0.9897286241855225</v>
       </c>
       <c r="D10">
-        <v>1.018101101783739</v>
+        <v>1.017892345169731</v>
       </c>
       <c r="E10">
-        <v>0.9986961384563439</v>
+        <v>0.9987314698364694</v>
       </c>
       <c r="F10">
-        <v>1.024566947699246</v>
+        <v>1.024453955460565</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044638500710186</v>
+        <v>1.044586113995716</v>
       </c>
       <c r="J10">
-        <v>1.01834994719015</v>
+        <v>1.018355775459628</v>
       </c>
       <c r="K10">
-        <v>1.032151049448976</v>
+        <v>1.031945891627574</v>
       </c>
       <c r="L10">
-        <v>1.013088974499552</v>
+        <v>1.013123665821945</v>
       </c>
       <c r="M10">
-        <v>1.038506366772041</v>
+        <v>1.038395290586924</v>
       </c>
       <c r="N10">
-        <v>1.019796120921532</v>
+        <v>1.020301753513382</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039098995051054</v>
+        <v>1.039011090993899</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033840555125253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033707932972129</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020857444782523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9874130492056595</v>
+        <v>0.9877835222421907</v>
       </c>
       <c r="D11">
-        <v>1.016820381787093</v>
+        <v>1.016891576956442</v>
       </c>
       <c r="E11">
-        <v>0.9969692855364918</v>
+        <v>0.9973268416419538</v>
       </c>
       <c r="F11">
-        <v>1.023666214362748</v>
+        <v>1.023779476398156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044397098511912</v>
+        <v>1.044469011214276</v>
       </c>
       <c r="J11">
-        <v>1.017318999645439</v>
+        <v>1.017673502634151</v>
       </c>
       <c r="K11">
-        <v>1.031431911959654</v>
+        <v>1.031501821736508</v>
       </c>
       <c r="L11">
-        <v>1.011948583915196</v>
+        <v>1.012299346501912</v>
       </c>
       <c r="M11">
-        <v>1.038155207823332</v>
+        <v>1.038266460409005</v>
       </c>
       <c r="N11">
-        <v>1.018763709313056</v>
+        <v>1.020366224796303</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039256909002765</v>
+        <v>1.039344908457385</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033365006055174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033430083269382</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020823596952766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9866925547599725</v>
+        <v>0.9871756894738447</v>
       </c>
       <c r="D12">
-        <v>1.016490865588474</v>
+        <v>1.016645384344948</v>
       </c>
       <c r="E12">
-        <v>0.9964570257822972</v>
+        <v>0.9969132131657378</v>
       </c>
       <c r="F12">
-        <v>1.023630959459511</v>
+        <v>1.023812526312195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044389389071593</v>
+        <v>1.044495864266816</v>
       </c>
       <c r="J12">
-        <v>1.017070986174488</v>
+        <v>1.017532891519266</v>
       </c>
       <c r="K12">
-        <v>1.031308802527165</v>
+        <v>1.031460485295714</v>
       </c>
       <c r="L12">
-        <v>1.01165241983288</v>
+        <v>1.012099791046622</v>
       </c>
       <c r="M12">
-        <v>1.038319011828555</v>
+        <v>1.038497306521169</v>
       </c>
       <c r="N12">
-        <v>1.018515343634529</v>
+        <v>1.020481542389145</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039712549369137</v>
+        <v>1.039853530683053</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033277963353902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033400857571311</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020850709189311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9871621806509493</v>
+        <v>0.9875469000872061</v>
       </c>
       <c r="D13">
-        <v>1.016889588801506</v>
+        <v>1.016963041220198</v>
       </c>
       <c r="E13">
-        <v>0.996856590498709</v>
+        <v>0.9972236030354787</v>
       </c>
       <c r="F13">
-        <v>1.024283346119346</v>
+        <v>1.024400686547947</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04457452024705</v>
+        <v>1.044640495895653</v>
       </c>
       <c r="J13">
-        <v>1.017425326768678</v>
+        <v>1.017793223843107</v>
       </c>
       <c r="K13">
-        <v>1.031657237524239</v>
+        <v>1.031729347561834</v>
       </c>
       <c r="L13">
-        <v>1.012000024815931</v>
+        <v>1.012359975009642</v>
       </c>
       <c r="M13">
-        <v>1.038917124609589</v>
+        <v>1.039032360726315</v>
       </c>
       <c r="N13">
-        <v>1.018870187433006</v>
+        <v>1.020584655139432</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040461862190611</v>
+        <v>1.040552958922508</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033521821425925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033588208754365</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.0209287392672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9880310300340006</v>
+        <v>0.9882541556804944</v>
       </c>
       <c r="D14">
-        <v>1.017499761033045</v>
+        <v>1.017444384608797</v>
       </c>
       <c r="E14">
-        <v>0.997550220824201</v>
+        <v>0.9977727182742924</v>
       </c>
       <c r="F14">
-        <v>1.025051521883162</v>
+        <v>1.025065898173199</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044791509141328</v>
+        <v>1.044796771157214</v>
       </c>
       <c r="J14">
-        <v>1.017946729812385</v>
+        <v>1.018160238486368</v>
       </c>
       <c r="K14">
-        <v>1.032115581274617</v>
+        <v>1.032061204373999</v>
       </c>
       <c r="L14">
-        <v>1.012535514469723</v>
+        <v>1.01275378463849</v>
       </c>
       <c r="M14">
-        <v>1.039532347832285</v>
+        <v>1.039546469594157</v>
       </c>
       <c r="N14">
-        <v>1.019392330928841</v>
+        <v>1.020654306874548</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04112133305981</v>
+        <v>1.041132495123878</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033847314160115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033824404224952</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021007714237384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9885068069277972</v>
+        <v>0.9886464599071765</v>
       </c>
       <c r="D15">
-        <v>1.017815109581632</v>
+        <v>1.017693959993319</v>
       </c>
       <c r="E15">
-        <v>0.9979228211198758</v>
+        <v>0.9980711401616665</v>
       </c>
       <c r="F15">
-        <v>1.025403436275474</v>
+        <v>1.025365119627285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04489076789709</v>
+        <v>1.04486583212958</v>
       </c>
       <c r="J15">
-        <v>1.018211622025554</v>
+        <v>1.018345308397897</v>
       </c>
       <c r="K15">
-        <v>1.032338595197338</v>
+        <v>1.032219615813075</v>
       </c>
       <c r="L15">
-        <v>1.012811870473797</v>
+        <v>1.012957393384533</v>
       </c>
       <c r="M15">
-        <v>1.0397923135081</v>
+        <v>1.039754670067925</v>
       </c>
       <c r="N15">
-        <v>1.019657599319336</v>
+        <v>1.020677490603796</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041364309342244</v>
+        <v>1.041334556154145</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034010874634163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033942857163588</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021041332454972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9910286111048178</v>
+        <v>0.9907664625391113</v>
       </c>
       <c r="D16">
-        <v>1.01940096769808</v>
+        <v>1.018964728293904</v>
       </c>
       <c r="E16">
-        <v>0.9998671599171505</v>
+        <v>0.9996608183649438</v>
       </c>
       <c r="F16">
-        <v>1.026999838116752</v>
+        <v>1.026709318218762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045328268065083</v>
+        <v>1.045162333362474</v>
       </c>
       <c r="J16">
-        <v>1.019524810062631</v>
+        <v>1.019273301301407</v>
       </c>
       <c r="K16">
-        <v>1.033392873692717</v>
+        <v>1.032964110163312</v>
       </c>
       <c r="L16">
-        <v>1.014202128448058</v>
+        <v>1.013999503781273</v>
       </c>
       <c r="M16">
-        <v>1.0408628352924</v>
+        <v>1.040577198596091</v>
       </c>
       <c r="N16">
-        <v>1.02097265223405</v>
+        <v>1.020791036076226</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042171771117714</v>
+        <v>1.041945998890781</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03475946131107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034472716016059</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021178345805984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9925101782563861</v>
+        <v>0.9920460663369322</v>
       </c>
       <c r="D17">
-        <v>1.020299456815524</v>
+        <v>1.019704155360589</v>
       </c>
       <c r="E17">
-        <v>1.000998690855039</v>
+        <v>1.000615155687262</v>
       </c>
       <c r="F17">
-        <v>1.027818240631211</v>
+        <v>1.027400970628336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045547718767188</v>
+        <v>1.045312035355541</v>
       </c>
       <c r="J17">
-        <v>1.020259253414366</v>
+        <v>1.019813371641193</v>
       </c>
       <c r="K17">
-        <v>1.033960684462826</v>
+        <v>1.033375300125011</v>
       </c>
       <c r="L17">
-        <v>1.014989232033024</v>
+        <v>1.014612407586402</v>
       </c>
       <c r="M17">
-        <v>1.041355483891381</v>
+        <v>1.040945033516965</v>
       </c>
       <c r="N17">
-        <v>1.021708138579587</v>
+        <v>1.020904834674717</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042432281167864</v>
+        <v>1.042107821788981</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035163517749467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034766284822317</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021245328071243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9932243267421117</v>
+        <v>0.9926848018340558</v>
       </c>
       <c r="D18">
-        <v>1.02066747457701</v>
+        <v>1.02001369928969</v>
       </c>
       <c r="E18">
-        <v>1.001522424700295</v>
+        <v>1.00107361513666</v>
       </c>
       <c r="F18">
-        <v>1.027997019529163</v>
+        <v>1.02753297400466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045588965530434</v>
+        <v>1.045329318974775</v>
       </c>
       <c r="J18">
-        <v>1.020545777539248</v>
+        <v>1.020027045839958</v>
       </c>
       <c r="K18">
-        <v>1.034138748091384</v>
+        <v>1.03349568671113</v>
       </c>
       <c r="L18">
-        <v>1.015314930754785</v>
+        <v>1.014873842282798</v>
       </c>
       <c r="M18">
-        <v>1.041349374991922</v>
+        <v>1.040892793820952</v>
       </c>
       <c r="N18">
-        <v>1.02199506960159</v>
+        <v>1.020941816412476</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042190057027731</v>
+        <v>1.041829056359823</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035277761867684</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034838611492324</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021245344661134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9932538348698912</v>
+        <v>0.9927349892475569</v>
       </c>
       <c r="D19">
-        <v>1.020568587014399</v>
+        <v>1.019934659172681</v>
       </c>
       <c r="E19">
-        <v>1.001505537379129</v>
+        <v>1.001076067886035</v>
       </c>
       <c r="F19">
-        <v>1.027600050434725</v>
+        <v>1.027150839791774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045477832999281</v>
+        <v>1.045229568192277</v>
       </c>
       <c r="J19">
-        <v>1.020438015890896</v>
+        <v>1.01993904707551</v>
       </c>
       <c r="K19">
-        <v>1.033978787917522</v>
+        <v>1.033355195593496</v>
       </c>
       <c r="L19">
-        <v>1.015233929598347</v>
+        <v>1.014811808961105</v>
       </c>
       <c r="M19">
-        <v>1.040896707382707</v>
+        <v>1.040454690973638</v>
       </c>
       <c r="N19">
-        <v>1.021887154919338</v>
+        <v>1.020869147290079</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041507060555833</v>
+        <v>1.041157461707527</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035171069104068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034746311026205</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021186817575154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9913485731699729</v>
+        <v>0.9911151317585132</v>
       </c>
       <c r="D20">
-        <v>1.019147064972513</v>
+        <v>1.018748740146076</v>
       </c>
       <c r="E20">
-        <v>0.9999596898259329</v>
+        <v>0.9997830974144931</v>
       </c>
       <c r="F20">
-        <v>1.025625940533919</v>
+        <v>1.025361644511797</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044937546748478</v>
+        <v>1.044798918726029</v>
       </c>
       <c r="J20">
-        <v>1.019217115117766</v>
+        <v>1.018992899350732</v>
       </c>
       <c r="K20">
-        <v>1.032861389240008</v>
+        <v>1.032469736731032</v>
       </c>
       <c r="L20">
-        <v>1.014003248076604</v>
+        <v>1.01382976186531</v>
       </c>
       <c r="M20">
-        <v>1.039232673707727</v>
+        <v>1.038972732478961</v>
       </c>
       <c r="N20">
-        <v>1.02066452032707</v>
+        <v>1.020462461315463</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039663248789652</v>
+        <v>1.039457532644443</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034384951511228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034124574889987</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020960847684408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9866398380231503</v>
+        <v>0.9872231895714657</v>
       </c>
       <c r="D21">
-        <v>1.016132958297769</v>
+        <v>1.01637530625425</v>
       </c>
       <c r="E21">
-        <v>0.9963066591628064</v>
+        <v>0.9968570810597314</v>
       </c>
       <c r="F21">
-        <v>1.022478006037923</v>
+        <v>1.022728535912963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044066995299887</v>
+        <v>1.044223599149005</v>
       </c>
       <c r="J21">
-        <v>1.016706960470616</v>
+        <v>1.017264990167957</v>
       </c>
       <c r="K21">
-        <v>1.03081499994989</v>
+        <v>1.031052945629874</v>
       </c>
       <c r="L21">
-        <v>1.011358342486633</v>
+        <v>1.011898242651907</v>
       </c>
       <c r="M21">
-        <v>1.037045682563689</v>
+        <v>1.037291734624302</v>
       </c>
       <c r="N21">
-        <v>1.018150800972403</v>
+        <v>1.020308995856271</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037891558495613</v>
+        <v>1.038086292885796</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032941307934591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033126405023977</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020693571542546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9836371056626937</v>
+        <v>0.9847267812582134</v>
       </c>
       <c r="D22">
-        <v>1.014221703345799</v>
+        <v>1.014865235791906</v>
       </c>
       <c r="E22">
-        <v>0.9939871105364688</v>
+        <v>0.9949887857659389</v>
       </c>
       <c r="F22">
-        <v>1.020513981897984</v>
+        <v>1.021087042877254</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043509049025298</v>
+        <v>1.043851246029454</v>
       </c>
       <c r="J22">
-        <v>1.01511266982551</v>
+        <v>1.016152282647652</v>
       </c>
       <c r="K22">
-        <v>1.02951659389306</v>
+        <v>1.030147851486807</v>
       </c>
       <c r="L22">
-        <v>1.009678632498015</v>
+        <v>1.010660173763632</v>
       </c>
       <c r="M22">
-        <v>1.035689719986395</v>
+        <v>1.036252024581352</v>
       </c>
       <c r="N22">
-        <v>1.016554246251713</v>
+        <v>1.020160208435385</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036818400320668</v>
+        <v>1.03726342885537</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.0320097341405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032471622083812</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020521880746351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.985224263402219</v>
+        <v>0.9860139931445827</v>
       </c>
       <c r="D23">
-        <v>1.015225795732431</v>
+        <v>1.015633164930787</v>
       </c>
       <c r="E23">
-        <v>0.9952109031711538</v>
+        <v>0.9959440694081365</v>
       </c>
       <c r="F23">
-        <v>1.021549156074762</v>
+        <v>1.021931447114583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043800748729164</v>
+        <v>1.044032793376001</v>
       </c>
       <c r="J23">
-        <v>1.01595102719593</v>
+        <v>1.016705540403585</v>
       </c>
       <c r="K23">
-        <v>1.030195572593388</v>
+        <v>1.030595368224225</v>
       </c>
       <c r="L23">
-        <v>1.010562807021658</v>
+        <v>1.011281619970109</v>
       </c>
       <c r="M23">
-        <v>1.036402259229976</v>
+        <v>1.036777556794452</v>
       </c>
       <c r="N23">
-        <v>1.01739379418576</v>
+        <v>1.020148464925908</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037382330033953</v>
+        <v>1.037679354123437</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032480142095596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032777436935766</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020602139166624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9913699529174563</v>
+        <v>0.9911364368606761</v>
       </c>
       <c r="D24">
-        <v>1.019134956362957</v>
+        <v>1.018736797436828</v>
       </c>
       <c r="E24">
-        <v>0.9999687805246976</v>
+        <v>0.9997922319299233</v>
       </c>
       <c r="F24">
-        <v>1.025578759625163</v>
+        <v>1.025314525734557</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044918769476752</v>
+        <v>1.044780594710902</v>
       </c>
       <c r="J24">
-        <v>1.019204304933006</v>
+        <v>1.018980003915452</v>
       </c>
       <c r="K24">
-        <v>1.032834171771214</v>
+        <v>1.032442674033784</v>
       </c>
       <c r="L24">
-        <v>1.013996444434187</v>
+        <v>1.013822997191065</v>
       </c>
       <c r="M24">
-        <v>1.039171095487297</v>
+        <v>1.038911210308359</v>
       </c>
       <c r="N24">
-        <v>1.020651691950378</v>
+        <v>1.020447235161168</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039573684458691</v>
+        <v>1.039368002470132</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034338247512514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034075303254405</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020949097531317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9982689529718397</v>
+        <v>0.9973732419258832</v>
       </c>
       <c r="D25">
-        <v>1.023545394546373</v>
+        <v>1.02258819744428</v>
       </c>
       <c r="E25">
-        <v>1.005342161755112</v>
+        <v>1.004588444223329</v>
       </c>
       <c r="F25">
-        <v>1.030136101037442</v>
+        <v>1.029437823903163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046135090647573</v>
+        <v>1.045751086142995</v>
       </c>
       <c r="J25">
-        <v>1.022854714521002</v>
+        <v>1.021989331485807</v>
       </c>
       <c r="K25">
-        <v>1.0357888721615</v>
+        <v>1.034845695852773</v>
       </c>
       <c r="L25">
-        <v>1.017858109748403</v>
+        <v>1.01711594565915</v>
       </c>
       <c r="M25">
-        <v>1.042283935646308</v>
+        <v>1.041595718282035</v>
       </c>
       <c r="N25">
-        <v>1.024307285538698</v>
+        <v>1.022038366793344</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042037287694279</v>
+        <v>1.041492610747728</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036424511493353</v>
+        <v>1.035771193236685</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021435724850764</v>
       </c>
     </row>
   </sheetData>
